--- a/officeSources/Book1.xlsx
+++ b/officeSources/Book1.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meldanor-surface\Seafile\MasterStudium\Masterarbeit\LaTeX_Document\officeSources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Seafile\MasterStudium\Masterarbeit\LaTeX_Document\officeSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A5E42E9-D716-48F4-8DD9-D76F82CA10D3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5D6A69-925A-4216-B5C1-CF7F4E820017}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465" xr2:uid="{30FCA12B-658B-4520-9716-1906F851B2A5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9468" activeTab="1" xr2:uid="{30FCA12B-658B-4520-9716-1906F851B2A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +26,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>Node</t>
   </si>
   <si>
     <t>Probability</t>
+  </si>
+  <si>
+    <t>Allowed</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Tolerance</t>
   </si>
 </sst>
 </file>
@@ -315,7 +325,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -353,7 +363,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388280320"/>
@@ -436,7 +446,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -468,7 +478,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388279992"/>
@@ -516,7 +526,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -757,7 +767,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -795,7 +805,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388280320"/>
@@ -878,7 +888,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -910,7 +920,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388279992"/>
@@ -958,13 +968,1341 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-2B62-4E68-BB87-43890B3543AF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1083</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1074</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>876</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>941</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>859</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>955</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>932</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>941</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>935</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1077</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>932</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>932</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1098</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>905</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>807</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>828</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>853</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>857</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>834</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>806</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>933</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1055</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1049</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>806</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1038</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>923</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>873</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2B62-4E68-BB87-43890B3543AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Allowed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2B62-4E68-BB87-43890B3543AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tolerance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2B62-4E68-BB87-43890B3543AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1872180175"/>
+        <c:axId val="1732282527"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1872180175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> [s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1732282527"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1732282527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Bandwidth [kBit/s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1872180175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1049,6 +2387,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1702,6 +3080,522 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2126,6 +4020,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>26504</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>490330</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2059E27B-FEE6-4896-9FCC-11CD467BA94D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2433,13 +4368,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D77CEF-831F-4566-8E78-2BC751B55D17}">
   <dimension ref="B2:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2447,7 +4382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -2455,7 +4390,7 @@
         <v>0.36380486470061224</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -2463,7 +4398,7 @@
         <v>0.2334754031747841</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
@@ -2471,7 +4406,7 @@
         <v>9.1968928158291385E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
@@ -2479,7 +4414,7 @@
         <v>0.87327148613588701</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>5</v>
       </c>
@@ -2487,7 +4422,7 @@
         <v>0.21887217906227541</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>6</v>
       </c>
@@ -2495,7 +4430,7 @@
         <v>0.7501432068741104</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>7</v>
       </c>
@@ -2503,7 +4438,7 @@
         <v>0.45490601254717511</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>8</v>
       </c>
@@ -2511,7 +4446,7 @@
         <v>0.15509935420532606</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>9</v>
       </c>
@@ -2519,7 +4454,7 @@
         <v>0.91456933074804347</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>10</v>
       </c>
@@ -2527,7 +4462,7 @@
         <v>0.56837724235172749</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>11</v>
       </c>
@@ -2535,7 +4470,7 @@
         <v>0.57724050366978574</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>12</v>
       </c>
@@ -2543,7 +4478,7 @@
         <v>0.90811871072156347</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>13</v>
       </c>
@@ -2551,7 +4486,7 @@
         <v>0.80199200923409131</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>14</v>
       </c>
@@ -2559,7 +4494,7 @@
         <v>0.69376560173766644</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>15</v>
       </c>
@@ -2567,7 +4502,7 @@
         <v>0.53079270884006802</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -2575,7 +4510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>9</v>
       </c>
@@ -2583,7 +4518,7 @@
         <v>0.91456933074804347</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>12</v>
       </c>
@@ -2591,7 +4526,7 @@
         <v>0.90811871072156347</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>4</v>
       </c>
@@ -2599,7 +4534,7 @@
         <v>0.87327148613588701</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>13</v>
       </c>
@@ -2607,7 +4542,7 @@
         <v>0.80199200923409131</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>6</v>
       </c>
@@ -2615,7 +4550,7 @@
         <v>0.7501432068741104</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>14</v>
       </c>
@@ -2623,7 +4558,7 @@
         <v>0.69376560173766644</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>11</v>
       </c>
@@ -2631,7 +4566,7 @@
         <v>0.57724050366978574</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>10</v>
       </c>
@@ -2639,7 +4574,7 @@
         <v>0.56837724235172749</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>15</v>
       </c>
@@ -2647,7 +4582,7 @@
         <v>0.53079270884006802</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>7</v>
       </c>
@@ -2655,7 +4590,7 @@
         <v>0.45490601254717511</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>1</v>
       </c>
@@ -2663,7 +4598,7 @@
         <v>0.36380486470061224</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>2</v>
       </c>
@@ -2671,7 +4606,7 @@
         <v>0.2334754031747841</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>5</v>
       </c>
@@ -2679,7 +4614,7 @@
         <v>0.21887217906227541</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>8</v>
       </c>
@@ -2687,7 +4622,7 @@
         <v>0.15509935420532606</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>3</v>
       </c>
@@ -2702,4 +4637,895 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3559E99-9ED1-4684-9712-E8C6F3EB7BC8}">
+  <dimension ref="A1:E49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1040</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2">
+        <v>1100</v>
+      </c>
+      <c r="E2">
+        <f ca="1">RANDBETWEEN(800, 1100)</f>
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1083</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <v>1100</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E49" ca="1" si="0">RANDBETWEEN(800, 1100)</f>
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1074</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>1100</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>977</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1011</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5">
+        <v>1100</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>846</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6">
+        <v>1100</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>851</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>992</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7">
+        <v>1100</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>859</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>876</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="D8">
+        <v>1100</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>941</v>
+      </c>
+      <c r="C9">
+        <v>1000</v>
+      </c>
+      <c r="D9">
+        <v>1100</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>929</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>859</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="D10">
+        <v>1100</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>955</v>
+      </c>
+      <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="D11">
+        <v>1100</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>837</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1032</v>
+      </c>
+      <c r="C12">
+        <v>1000</v>
+      </c>
+      <c r="D12">
+        <v>1100</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>984</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>940</v>
+      </c>
+      <c r="C13">
+        <v>1000</v>
+      </c>
+      <c r="D13">
+        <v>1100</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>932</v>
+      </c>
+      <c r="C14">
+        <v>1000</v>
+      </c>
+      <c r="D14">
+        <v>1100</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>984</v>
+      </c>
+      <c r="C15">
+        <v>1000</v>
+      </c>
+      <c r="D15">
+        <v>1100</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>884</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1004</v>
+      </c>
+      <c r="C16">
+        <v>1000</v>
+      </c>
+      <c r="D16">
+        <v>1100</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>974</v>
+      </c>
+      <c r="C17">
+        <v>1000</v>
+      </c>
+      <c r="D17">
+        <v>1100</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>861</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>995</v>
+      </c>
+      <c r="C18">
+        <v>1000</v>
+      </c>
+      <c r="D18">
+        <v>1100</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="0"/>
+        <v>933</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>941</v>
+      </c>
+      <c r="C19">
+        <v>1000</v>
+      </c>
+      <c r="D19">
+        <v>1100</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="0"/>
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>935</v>
+      </c>
+      <c r="C20">
+        <v>1000</v>
+      </c>
+      <c r="D20">
+        <v>1100</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="0"/>
+        <v>833</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1077</v>
+      </c>
+      <c r="C21">
+        <v>1000</v>
+      </c>
+      <c r="D21">
+        <v>1100</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="0"/>
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>954</v>
+      </c>
+      <c r="C22">
+        <v>1000</v>
+      </c>
+      <c r="D22">
+        <v>1100</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="0"/>
+        <v>983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1082</v>
+      </c>
+      <c r="C23">
+        <v>1000</v>
+      </c>
+      <c r="D23">
+        <v>1100</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="0"/>
+        <v>909</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1031</v>
+      </c>
+      <c r="C24">
+        <v>1000</v>
+      </c>
+      <c r="D24">
+        <v>1100</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="0"/>
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>932</v>
+      </c>
+      <c r="C25">
+        <v>1000</v>
+      </c>
+      <c r="D25">
+        <v>1100</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="0"/>
+        <v>865</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>858</v>
+      </c>
+      <c r="C26">
+        <v>1000</v>
+      </c>
+      <c r="D26">
+        <v>1100</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="0"/>
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>932</v>
+      </c>
+      <c r="C27">
+        <v>1000</v>
+      </c>
+      <c r="D27">
+        <v>1100</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="0"/>
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1098</v>
+      </c>
+      <c r="C28">
+        <v>1000</v>
+      </c>
+      <c r="D28">
+        <v>1100</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="0"/>
+        <v>802</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1024</v>
+      </c>
+      <c r="C29">
+        <v>1000</v>
+      </c>
+      <c r="D29">
+        <v>1100</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="0"/>
+        <v>861</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>905</v>
+      </c>
+      <c r="C30">
+        <v>1000</v>
+      </c>
+      <c r="D30">
+        <v>1100</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="0"/>
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>807</v>
+      </c>
+      <c r="C31">
+        <v>1000</v>
+      </c>
+      <c r="D31">
+        <v>1100</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="0"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>908</v>
+      </c>
+      <c r="C32">
+        <v>1000</v>
+      </c>
+      <c r="D32">
+        <v>1100</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="0"/>
+        <v>946</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>828</v>
+      </c>
+      <c r="C33">
+        <v>1000</v>
+      </c>
+      <c r="D33">
+        <v>1100</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="0"/>
+        <v>895</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>853</v>
+      </c>
+      <c r="C34">
+        <v>1000</v>
+      </c>
+      <c r="D34">
+        <v>1100</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="0"/>
+        <v>921</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>857</v>
+      </c>
+      <c r="C35">
+        <v>1000</v>
+      </c>
+      <c r="D35">
+        <v>1100</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="0"/>
+        <v>947</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>834</v>
+      </c>
+      <c r="C36">
+        <v>1000</v>
+      </c>
+      <c r="D36">
+        <v>1100</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="0"/>
+        <v>830</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>806</v>
+      </c>
+      <c r="C37">
+        <v>1000</v>
+      </c>
+      <c r="D37">
+        <v>1100</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="0"/>
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>933</v>
+      </c>
+      <c r="C38">
+        <v>1000</v>
+      </c>
+      <c r="D38">
+        <v>1100</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="0"/>
+        <v>877</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>934</v>
+      </c>
+      <c r="C39">
+        <v>1000</v>
+      </c>
+      <c r="D39">
+        <v>1100</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="0"/>
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1055</v>
+      </c>
+      <c r="C40">
+        <v>1000</v>
+      </c>
+      <c r="D40">
+        <v>1100</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="0"/>
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1001</v>
+      </c>
+      <c r="C41">
+        <v>1000</v>
+      </c>
+      <c r="D41">
+        <v>1100</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="0"/>
+        <v>983</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>1049</v>
+      </c>
+      <c r="C42">
+        <v>1000</v>
+      </c>
+      <c r="D42">
+        <v>1100</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="0"/>
+        <v>888</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>806</v>
+      </c>
+      <c r="C43">
+        <v>1000</v>
+      </c>
+      <c r="D43">
+        <v>1100</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="0"/>
+        <v>879</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1038</v>
+      </c>
+      <c r="C44">
+        <v>1000</v>
+      </c>
+      <c r="D44">
+        <v>1100</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="0"/>
+        <v>940</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>992</v>
+      </c>
+      <c r="C45">
+        <v>1000</v>
+      </c>
+      <c r="D45">
+        <v>1100</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="0"/>
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>923</v>
+      </c>
+      <c r="C46">
+        <v>1000</v>
+      </c>
+      <c r="D46">
+        <v>1100</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="0"/>
+        <v>952</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1036</v>
+      </c>
+      <c r="C47">
+        <v>1000</v>
+      </c>
+      <c r="D47">
+        <v>1100</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="0"/>
+        <v>992</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>971</v>
+      </c>
+      <c r="C48">
+        <v>1000</v>
+      </c>
+      <c r="D48">
+        <v>1100</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="0"/>
+        <v>856</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>873</v>
+      </c>
+      <c r="C49">
+        <v>1000</v>
+      </c>
+      <c r="D49">
+        <v>1100</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="0"/>
+        <v>924</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>